--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>-12.05449509476226</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.26139583011993</v>
+        <v>-14.28268391454058</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2289216290266724</v>
+        <v>-0.2259627685844423</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.535526368148523</v>
+        <v>-7.451787999172844</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.94472345025412</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.67959016749035</v>
+        <v>-14.70114009796783</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3259748699923877</v>
+        <v>-0.3232778556069922</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.688614665276827</v>
+        <v>-7.61044052500888</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.77931358932581</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.10679200921587</v>
+        <v>-15.11538055988004</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2510083439206642</v>
+        <v>-0.2475519759704486</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.593643100462946</v>
+        <v>-7.51410736069946</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.58206425438149</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.54812044570761</v>
+        <v>-15.56262671725624</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1865025678194799</v>
+        <v>-0.181671508070883</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.658122691958447</v>
+        <v>-7.581297058883198</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.35435338875002</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.26449198029833</v>
+        <v>-16.28079189733629</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2740769815277856</v>
+        <v>-0.2669547687818866</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.600451097940643</v>
+        <v>-7.538891089978847</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.11926877479689</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.86316371234194</v>
+        <v>-16.87942435247137</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1062205667940157</v>
+        <v>-0.1039032291910302</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.550359947268199</v>
+        <v>-7.489821138928058</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.87908564352763</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.53159123392627</v>
+        <v>-17.54887307367735</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08697488161667835</v>
+        <v>-0.08078222237254191</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.545371779885501</v>
+        <v>-7.490462661767302</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.64642277019463</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.18966274396279</v>
+        <v>-18.21169708964541</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02308444374905514</v>
+        <v>-0.01329140122344404</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.32159813971472</v>
+        <v>-7.270970204625764</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.42383746907504</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.90678053981549</v>
+        <v>-18.92182359578063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1858556173020512</v>
+        <v>0.1921006457575545</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.074873692662392</v>
+        <v>-7.025973941548544</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.21150960326926</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.56775854108287</v>
+        <v>-19.5805366286564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2134018224810428</v>
+        <v>0.2226318959844597</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.029875447795379</v>
+        <v>-6.993177722930021</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.01803774577136</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.36432043057917</v>
+        <v>-20.38573943802824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2728801542910044</v>
+        <v>0.2844668423059319</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.868054584671645</v>
+        <v>-6.841346286874524</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.838959158944821</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.11596262902551</v>
+        <v>-21.14289349597094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3563566772098498</v>
+        <v>0.3734028555097771</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.487945756267812</v>
+        <v>-6.462062273549719</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.693296773805962</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.08559166978658</v>
+        <v>-22.12130747193881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4446380752716086</v>
+        <v>0.4608070692811403</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.006816719137221</v>
+        <v>-5.967723102851827</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.576904648162811</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.88257251297381</v>
+        <v>-22.91720165399018</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5980798645766382</v>
+        <v>0.616775673034623</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.456769799847783</v>
+        <v>-5.425819595929943</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.507231922351872</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.8702165624451</v>
+        <v>-23.91601343778546</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7982873596323132</v>
+        <v>0.8139064769224924</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.828142878902306</v>
+        <v>-4.788787416560078</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.472798104777675</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.89872168908542</v>
+        <v>-24.94149424246934</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8875375881043598</v>
+        <v>0.9026199209780282</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.193702975495103</v>
+        <v>-4.142891748166364</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.480094003950327</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.65992126860622</v>
+        <v>-25.71103361890031</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9572541007365512</v>
+        <v>0.9675446507701478</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.601276271906998</v>
+        <v>-3.543211908803943</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.507830346258727</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.40450671582086</v>
+        <v>-26.45602492750305</v>
       </c>
       <c r="F19" t="n">
-        <v>1.138687233517191</v>
+        <v>1.149501475664457</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.795811616478327</v>
+        <v>-2.72703774965074</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.55316826897392</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.00570526231292</v>
+        <v>-27.06030016516292</v>
       </c>
       <c r="F20" t="n">
-        <v>1.308258739923227</v>
+        <v>1.320670243017183</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.015798397773971</v>
+        <v>-1.936589965581529</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.59221830846573</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.84187136790544</v>
+        <v>-27.90124496129267</v>
       </c>
       <c r="F21" t="n">
-        <v>1.310144031532436</v>
+        <v>1.321010642891068</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.561430027651868</v>
+        <v>-1.469927923091045</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.619723616790107</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.47734556323714</v>
+        <v>-28.54833202924498</v>
       </c>
       <c r="F22" t="n">
-        <v>1.436458569349409</v>
+        <v>1.444575797111279</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.09412646232214</v>
+        <v>-0.9974398058359926</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.619598082671974</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.91604244685769</v>
+        <v>-28.99612806334054</v>
       </c>
       <c r="F23" t="n">
-        <v>1.616399179606092</v>
+        <v>1.632659819735516</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.752286435124672</v>
+        <v>-0.6622244838764383</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.588078383591027</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.29650476743826</v>
+        <v>-29.37194261641228</v>
       </c>
       <c r="F24" t="n">
-        <v>1.617106163959545</v>
+        <v>1.628496467431847</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5391175602556881</v>
+        <v>-0.4475238095749726</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.523347242408839</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.68851449912522</v>
+        <v>-29.76312753302021</v>
       </c>
       <c r="F25" t="n">
-        <v>1.843969587600974</v>
+        <v>1.854076845394787</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3666657472244724</v>
+        <v>-0.2621891705474983</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.423526591215865</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.03066874159089</v>
+        <v>-30.11875375511002</v>
       </c>
       <c r="F26" t="n">
-        <v>1.861068135112268</v>
+        <v>1.87010182407306</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2534042353407001</v>
+        <v>-0.15457044118851</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.298492447848345</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.85273125366899</v>
+        <v>-29.93294779318024</v>
       </c>
       <c r="F27" t="n">
-        <v>1.875888621929102</v>
+        <v>1.884346249564858</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1944234110387242</v>
+        <v>-0.09722615474174987</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.145081219296502</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.87332544603902</v>
+        <v>-29.95403949305826</v>
       </c>
       <c r="F28" t="n">
-        <v>1.938103245032985</v>
+        <v>1.944047150523128</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05753795715029399</v>
+        <v>0.1618836107988507</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.976978062326829</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.82645500186564</v>
+        <v>-29.91122766276582</v>
       </c>
       <c r="F29" t="n">
-        <v>1.902099412218238</v>
+        <v>1.903618119347878</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002542620590386937</v>
+        <v>0.1044738628378819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.78742701764595</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.53600226332195</v>
+        <v>-29.61336468081371</v>
       </c>
       <c r="F30" t="n">
-        <v>1.786546747337164</v>
+        <v>1.78872006960889</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1743136338738329</v>
+        <v>-0.07034765700768625</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.585748865920348</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.14121696343254</v>
+        <v>-29.22424834805477</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799351019516372</v>
+        <v>1.799455757939106</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3498028611643292</v>
+        <v>-0.2489790369801967</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.36148341067681</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.73451766795716</v>
+        <v>-28.8101780860795</v>
       </c>
       <c r="F32" t="n">
-        <v>1.842660357316802</v>
+        <v>1.8421890344145</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7734697811225847</v>
+        <v>-0.6752513252039558</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.121197045322941</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.3194785755716</v>
+        <v>-28.40227429874268</v>
       </c>
       <c r="F33" t="n">
-        <v>1.895003384078022</v>
+        <v>1.901497166287519</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.9026515332618958</v>
+        <v>-0.8043021543148496</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.856134015374747</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.61796680470624</v>
+        <v>-27.69861539021127</v>
       </c>
       <c r="F34" t="n">
-        <v>1.874291360982412</v>
+        <v>1.880732773980541</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.283925576618642</v>
+        <v>-1.188351765874042</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.574131310423144</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.0295463457877</v>
+        <v>-27.1114387000627</v>
       </c>
       <c r="F35" t="n">
-        <v>1.883167942309102</v>
+        <v>1.896522091207663</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.502711049406727</v>
+        <v>-1.407111054056443</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.273067714966672</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.44065456396687</v>
+        <v>-26.52392161004024</v>
       </c>
       <c r="F36" t="n">
-        <v>1.8349097140345</v>
+        <v>1.851458384826442</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.864451376923618</v>
+        <v>-1.770671211668334</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.962970770984236</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.70210466836226</v>
+        <v>-25.77768653266754</v>
       </c>
       <c r="F37" t="n">
-        <v>1.954259146739675</v>
+        <v>1.970886371348667</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.016230443767749</v>
+        <v>-1.931012644570953</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.650344363063032</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.08789237284552</v>
+        <v>-25.15828968522548</v>
       </c>
       <c r="F38" t="n">
-        <v>2.14870602854499</v>
+        <v>2.17722106413427</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.31934343915939</v>
+        <v>-2.240802714411875</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.343255076448988</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.44550544161339</v>
+        <v>-24.50709163418087</v>
       </c>
       <c r="F39" t="n">
-        <v>2.225400738591822</v>
+        <v>2.252501805474195</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.612571745905529</v>
+        <v>-2.533271667593194</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.052689970547397</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.81961481196183</v>
+        <v>-23.8811355430151</v>
       </c>
       <c r="F40" t="n">
-        <v>2.365305086758506</v>
+        <v>2.39780018241167</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.965095092221845</v>
+        <v>-2.897748286404006</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.781319909895638</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.13152265150924</v>
+        <v>-23.18929898394977</v>
       </c>
       <c r="F41" t="n">
-        <v>2.497039837951954</v>
+        <v>2.535662131335046</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.188004640405073</v>
+        <v>-3.123171556732846</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.542303846708506</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.47350351068408</v>
+        <v>-22.53063832028538</v>
       </c>
       <c r="F42" t="n">
-        <v>2.684390691617054</v>
+        <v>2.722122708406908</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.715716091046526</v>
+        <v>-3.672707876211456</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.333360590391322</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.88275262185972</v>
+        <v>-21.93592046369997</v>
       </c>
       <c r="F43" t="n">
-        <v>2.761949493651439</v>
+        <v>2.801331140599352</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.102017578694495</v>
+        <v>-4.069653406069748</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.16578887830731</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.10119451142004</v>
+        <v>-21.14057615836795</v>
       </c>
       <c r="F44" t="n">
-        <v>2.831103037261436</v>
+        <v>2.877894927617765</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.347681549216643</v>
+        <v>-4.318865390662004</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.033053937597862</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.48843546151873</v>
+        <v>-20.52038068045255</v>
       </c>
       <c r="F45" t="n">
-        <v>2.943356441826396</v>
+        <v>2.985592210793804</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.67381081300404</v>
+        <v>-4.656542065555803</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.942249641692738</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.76380268383488</v>
+        <v>-19.79040624320927</v>
       </c>
       <c r="F46" t="n">
-        <v>3.104758351259195</v>
+        <v>3.147177412466387</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.904392450652519</v>
+        <v>-4.886770211027556</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.884241744988453</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.27934820178249</v>
+        <v>-19.30474726929544</v>
       </c>
       <c r="F47" t="n">
-        <v>3.15160261082689</v>
+        <v>3.194859579415954</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.025823559509528</v>
+        <v>-5.007599073953846</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.862642659303761</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.58124042965597</v>
+        <v>-18.60756905067068</v>
       </c>
       <c r="F48" t="n">
-        <v>3.234293595575232</v>
+        <v>3.275036842018684</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.317074928526567</v>
+        <v>-5.308826777736279</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.867037081102537</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.08371982936754</v>
+        <v>-18.11092563467265</v>
       </c>
       <c r="F49" t="n">
-        <v>3.251601619931994</v>
+        <v>3.295382280634726</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.429223594668792</v>
+        <v>-5.425583934478792</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.899017214007828</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.44676620381473</v>
+        <v>-17.47266277883566</v>
       </c>
       <c r="F50" t="n">
-        <v>3.255241280121994</v>
+        <v>3.299336156092927</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.575124217536987</v>
+        <v>-5.570005127125873</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.94925500597866</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.74707426304436</v>
+        <v>-16.76141033465605</v>
       </c>
       <c r="F51" t="n">
-        <v>3.346625553957242</v>
+        <v>3.395564581979614</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.661363216355436</v>
+        <v>-5.65531457244256</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.017690235255778</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.0669945919309</v>
+        <v>-16.08316358594043</v>
       </c>
       <c r="F52" t="n">
-        <v>3.309155383224222</v>
+        <v>3.352778936292853</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.782650309881187</v>
+        <v>-5.779835464770216</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.098671364170317</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.36929268119247</v>
+        <v>-15.38132450750402</v>
       </c>
       <c r="F53" t="n">
-        <v>3.459952527355223</v>
+        <v>3.509336693674213</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.997835399387797</v>
+        <v>-5.994235016106322</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.189145868273235</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.81322330259584</v>
+        <v>-14.82402445244027</v>
       </c>
       <c r="F54" t="n">
-        <v>3.399413719015082</v>
+        <v>3.446755486090763</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.182541607878868</v>
+        <v>-6.183039115386854</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.287604718205451</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.09356559999184</v>
+        <v>-14.09969279772177</v>
       </c>
       <c r="F55" t="n">
-        <v>3.42337263321544</v>
+        <v>3.472285476632129</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.410242938902168</v>
+        <v>-6.417417520859434</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.38778568253539</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.65370350141837</v>
+        <v>-13.65756573075668</v>
       </c>
       <c r="F56" t="n">
-        <v>3.350762721655228</v>
+        <v>3.399675565071916</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.624681767146799</v>
+        <v>-6.639227315603957</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.491850046537572</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.01372555390912</v>
+        <v>-13.010675047347</v>
       </c>
       <c r="F57" t="n">
-        <v>3.26917149034559</v>
+        <v>3.318555656664581</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.778280664085929</v>
+        <v>-6.786227691910857</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.592285044501577</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.48435138080677</v>
+        <v>-12.47150783171904</v>
       </c>
       <c r="F58" t="n">
-        <v>3.201196253991349</v>
+        <v>3.246495621823721</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.07736123020232</v>
+        <v>-7.088895549005881</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.692155307817797</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.91419468435244</v>
+        <v>-11.89276258460053</v>
       </c>
       <c r="F59" t="n">
-        <v>3.059642275666607</v>
+        <v>3.10161619857718</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.119898122135088</v>
+        <v>-7.117135646235483</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.782409371921347</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.38123322027146</v>
+        <v>-11.36480238020509</v>
       </c>
       <c r="F60" t="n">
-        <v>2.936522259743015</v>
+        <v>2.97593009129661</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.34724596098166</v>
+        <v>-7.343711039214395</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.864933061895083</v>
       </c>
       <c r="E61" t="n">
-        <v>-10.85586529183867</v>
+        <v>-10.82738953315792</v>
       </c>
       <c r="F61" t="n">
-        <v>2.780933332771942</v>
+        <v>2.819869841423235</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.416150750837665</v>
+        <v>-7.418219334686658</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.928635985682823</v>
       </c>
       <c r="E62" t="n">
-        <v>-10.37633351565477</v>
+        <v>-10.33861459116776</v>
       </c>
       <c r="F62" t="n">
-        <v>2.460329020783754</v>
+        <v>2.494238085143825</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.626373857567261</v>
+        <v>-7.626622611321253</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.97398565556929</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.15088406072025</v>
+        <v>-10.10622621572712</v>
       </c>
       <c r="F63" t="n">
-        <v>2.31406181343599</v>
+        <v>2.349987092433687</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.737645339419091</v>
+        <v>-7.730627865095926</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.991626560409633</v>
       </c>
       <c r="E64" t="n">
-        <v>-9.729613032182028</v>
+        <v>-9.675122867754764</v>
       </c>
       <c r="F64" t="n">
-        <v>2.149124982235926</v>
+        <v>2.179001617320744</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.633548439524526</v>
+        <v>-7.632933101290965</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.983941890207108</v>
       </c>
       <c r="E65" t="n">
-        <v>-9.648807339042895</v>
+        <v>-9.597681896445955</v>
       </c>
       <c r="F65" t="n">
-        <v>1.982931289963055</v>
+        <v>2.012938848076291</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.502154088204963</v>
+        <v>-7.498003828204136</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.946093075350937</v>
       </c>
       <c r="E66" t="n">
-        <v>-9.387301682082258</v>
+        <v>-9.336019131851218</v>
       </c>
       <c r="F66" t="n">
-        <v>1.822026888038241</v>
+        <v>1.843053126402054</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.518545651362805</v>
+        <v>-7.508975177985503</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.881236842130139</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.180037435794894</v>
+        <v>-9.115819690356227</v>
       </c>
       <c r="F67" t="n">
-        <v>1.490032272577752</v>
+        <v>1.501920083558039</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.440855926300002</v>
+        <v>-7.429976222638528</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.792767668237724</v>
       </c>
       <c r="E68" t="n">
-        <v>-9.077563981452704</v>
+        <v>-9.02103141778213</v>
       </c>
       <c r="F68" t="n">
-        <v>1.201661210185893</v>
+        <v>1.208102623184023</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.288212767468318</v>
+        <v>-7.280331201157599</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.684859466126348</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.911475027602567</v>
+        <v>-8.846772866958757</v>
       </c>
       <c r="F69" t="n">
-        <v>1.044920160564749</v>
+        <v>1.04735532889331</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.090335702318471</v>
+        <v>-7.081354382569046</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.565714881524133</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.823023429603865</v>
+        <v>-8.759787606878328</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7863995486520259</v>
+        <v>0.7866613947088604</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.764389730770858</v>
+        <v>-6.757332979539168</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.434122920470903</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.668141486986245</v>
+        <v>-8.599904404575168</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7373165052983949</v>
+        <v>0.7380365819546898</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.523779389145616</v>
+        <v>-6.514431484916624</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.298114820000666</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.709696456205885</v>
+        <v>-8.645413249253009</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6043118007292998</v>
+        <v>0.605686492527681</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.183877022768725</v>
+        <v>-6.177029748382502</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.153854555524083</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.850072127274871</v>
+        <v>-8.784178567072464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4818333076449524</v>
+        <v>0.4710452501033701</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.853388022135033</v>
+        <v>-5.843843733363415</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.008933811281126</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.123609610547053</v>
+        <v>-9.059431142016912</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3481347110252458</v>
+        <v>0.3317431478674048</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.512765579101846</v>
+        <v>-5.492826001873897</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.859556305172864</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.2768681076123</v>
+        <v>-9.209940255485396</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2831837966274428</v>
+        <v>0.2692797710095297</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.199479864402183</v>
+        <v>-5.179998517773694</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.713356984782385</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.454294995723371</v>
+        <v>-9.386123374826504</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1583879659401099</v>
+        <v>0.1496946768532038</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.746551647592669</v>
+        <v>-4.725630147651591</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.56761299862905</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.87344507120123</v>
+        <v>-9.807407495667565</v>
       </c>
       <c r="F77" t="n">
-        <v>0.163258302597232</v>
+        <v>0.150113630544139</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.568208298282677</v>
+        <v>-4.549407751401958</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.429406369836258</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.50774095927718</v>
+        <v>-10.44180812216624</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04025611739921558</v>
+        <v>0.02929785992069086</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.290245616649991</v>
+        <v>-4.269729978097006</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.297054621223262</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.13278058924402</v>
+        <v>-11.06714887509845</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.04206828286955794</v>
+        <v>-0.05597230848747102</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.932419887682776</v>
+        <v>-3.90840860427105</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.175400282005684</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.53064258030123</v>
+        <v>-11.46632009643983</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.1054743055320373</v>
+        <v>-0.1160921631366771</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.610440883896207</v>
+        <v>-3.579726341429517</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.064049618621025</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.19922720951966</v>
+        <v>-12.13548078698329</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.1575947631449488</v>
+        <v>-0.1680162362069627</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.337466369646218</v>
+        <v>-3.30850619576032</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.963181703996344</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.05361780066786</v>
+        <v>-12.99458460715452</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.185782491163185</v>
+        <v>-0.1957981028371054</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.011310921253138</v>
+        <v>-2.99114877487688</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.872512420210809</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.74410585254049</v>
+        <v>-13.68793987334949</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.2376803796277871</v>
+        <v>-0.2453917460015638</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.709782094505345</v>
+        <v>-2.680704089893871</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.787022002541763</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.58616349441179</v>
+        <v>-14.52910723862755</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.3486245539085738</v>
+        <v>-0.3584437810398684</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.510399414528699</v>
+        <v>-2.484607577930499</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.707570540815338</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.48252800847056</v>
+        <v>-15.42384830713395</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.402957610701737</v>
+        <v>-0.4066234554974203</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.290396357576334</v>
+        <v>-2.250464833909069</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.627287032957411</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.58081510925728</v>
+        <v>-16.51729125586922</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4681180019450076</v>
+        <v>-0.4763792450381368</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.090084124097925</v>
+        <v>-2.045753586675841</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.547891005007978</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.83516245991737</v>
+        <v>-17.77273835996802</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4028790568846867</v>
+        <v>-0.4033634720898305</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.843739353828007</v>
+        <v>-1.790532235079233</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.462061284589505</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.16328493709059</v>
+        <v>-19.10207842130552</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4155524060354775</v>
+        <v>-0.4169270978338587</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.767267212929485</v>
+        <v>-1.70874461922697</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.370724618931385</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.54015005774355</v>
+        <v>-20.48877586139262</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4992776827083157</v>
+        <v>-0.4977720678815172</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.765957982645313</v>
+        <v>-1.697760177142762</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.267125707582441</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.03138953602183</v>
+        <v>-21.97847044793558</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4466073483760517</v>
+        <v>-0.4463455023192172</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.64078247517557</v>
+        <v>-1.569272317054062</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.151734692156712</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.61436678031209</v>
+        <v>-23.56041340030134</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4594639897666267</v>
+        <v>-0.4523025001122026</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.673133555497475</v>
+        <v>-1.601597212770284</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.020515915025373</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.39285138293785</v>
+        <v>-25.34952895283457</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5740347319345716</v>
+        <v>-0.568418134015471</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.787232974763118</v>
+        <v>-1.721692906737437</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.876530856081123</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.99279625171098</v>
+        <v>-26.94479986949321</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7271884905770831</v>
+        <v>-0.709173481866868</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.803493614892541</v>
+        <v>-1.731512133868732</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.721141238846418</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.70504689426044</v>
+        <v>-28.65182668320882</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7654965686919736</v>
+        <v>-0.7536480346202115</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.951371175489837</v>
+        <v>-1.8752394344652</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.559798923687546</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.59735597779216</v>
+        <v>-30.54650547355489</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.048918740609659</v>
+        <v>-1.038562729061854</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.031299684338575</v>
+        <v>-1.948883637949909</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.396999799314029</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.70410388956851</v>
+        <v>-32.65372470823355</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.212716541462494</v>
+        <v>-1.197909146948502</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.308633935434858</v>
+        <v>-2.220077599013423</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.236453601615026</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.76821017098936</v>
+        <v>-34.71872126624763</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.269380028161485</v>
+        <v>-1.253145572637745</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.4538275739496</v>
+        <v>-2.367758775068093</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.082662643319525</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.924813571987</v>
+        <v>-36.86818936219653</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.353484981616733</v>
+        <v>-1.335325957575259</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.801258014460485</v>
+        <v>-2.713238462455561</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.936244411881698</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.97430884343648</v>
+        <v>-38.91823451036537</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.352162659029719</v>
+        <v>-1.340065371203964</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.097301166317595</v>
+        <v>-3.012515413114577</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.798876938644796</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.21454587498707</v>
+        <v>-41.16589487762722</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.224159214146163</v>
+        <v>-1.20729632808602</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.175645506522484</v>
+        <v>-3.100665888147919</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.66792191026104</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.33488359711313</v>
+        <v>-43.28557798461119</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.35201864369846</v>
+        <v>-1.334946280792849</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.524057869746498</v>
+        <v>-3.453647465063695</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.538679526594648</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.7242157734253</v>
+        <v>-45.67806540590821</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.407503823141695</v>
+        <v>-1.388637814746768</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.793222523869544</v>
+        <v>-3.727080209913144</v>
       </c>
     </row>
   </sheetData>
